--- a/Code/Results/Cases/Case_5_235/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_235/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.05675308284961</v>
+        <v>11.44237473425249</v>
       </c>
       <c r="C2">
-        <v>6.26897517631283</v>
+        <v>3.704411347280181</v>
       </c>
       <c r="D2">
-        <v>10.82938286242658</v>
+        <v>9.552705627693239</v>
       </c>
       <c r="E2">
-        <v>14.42889633780772</v>
+        <v>11.69700795633196</v>
       </c>
       <c r="F2">
-        <v>64.40254570431205</v>
+        <v>50.68607110340682</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.61227069119687</v>
+        <v>10.97568907855648</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.14989218090205</v>
+        <v>14.84782912126711</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.15710074065219</v>
+        <v>11.3436233243324</v>
       </c>
       <c r="C3">
-        <v>5.822900740557009</v>
+        <v>3.649666658397329</v>
       </c>
       <c r="D3">
-        <v>10.38332715384663</v>
+        <v>9.388250751436727</v>
       </c>
       <c r="E3">
-        <v>13.51023002327155</v>
+        <v>11.42711040780006</v>
       </c>
       <c r="F3">
-        <v>60.83062059378849</v>
+        <v>49.37148576754063</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.857434621202735</v>
+        <v>10.94998322847092</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.15235054085774</v>
+        <v>14.75478778018319</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.57967906708225</v>
+        <v>11.28818494904734</v>
       </c>
       <c r="C4">
-        <v>5.538905971891771</v>
+        <v>3.619505316429328</v>
       </c>
       <c r="D4">
-        <v>10.10332311270784</v>
+        <v>9.28472429905576</v>
       </c>
       <c r="E4">
-        <v>12.9285567121768</v>
+        <v>11.26136667513821</v>
       </c>
       <c r="F4">
-        <v>58.56839635428363</v>
+        <v>48.54807847348771</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.373264386610179</v>
+        <v>10.93930522970971</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.51181937358355</v>
+        <v>14.70243272264872</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.33794374422719</v>
+        <v>11.26692793595261</v>
       </c>
       <c r="C5">
-        <v>5.420535960204178</v>
+        <v>3.608107096826416</v>
       </c>
       <c r="D5">
-        <v>9.987697729106243</v>
+        <v>9.241918013633203</v>
       </c>
       <c r="E5">
-        <v>12.68716059634779</v>
+        <v>11.19391706980229</v>
       </c>
       <c r="F5">
-        <v>57.62949425260169</v>
+        <v>48.2088212694598</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.170625074986338</v>
+        <v>10.93623994860122</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.24358775290766</v>
+        <v>14.682315674612</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.2974116339382</v>
+        <v>11.26347958681162</v>
       </c>
       <c r="C6">
-        <v>5.400718571131419</v>
+        <v>3.60626899660649</v>
       </c>
       <c r="D6">
-        <v>9.968407167004587</v>
+        <v>9.23477339761622</v>
       </c>
       <c r="E6">
-        <v>12.64681672221716</v>
+        <v>11.18272562102484</v>
       </c>
       <c r="F6">
-        <v>57.47257513362734</v>
+        <v>48.15227499772806</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.136651069528707</v>
+        <v>10.93580866534114</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.19860825076958</v>
+        <v>14.67904930085579</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.57644515012658</v>
+        <v>11.28789283126457</v>
       </c>
       <c r="C7">
-        <v>5.537320404679743</v>
+        <v>3.619347951575937</v>
       </c>
       <c r="D7">
-        <v>10.10176987306567</v>
+        <v>9.284149471485049</v>
       </c>
       <c r="E7">
-        <v>12.92531868085472</v>
+        <v>11.26045652012303</v>
       </c>
       <c r="F7">
-        <v>58.55580236245274</v>
+        <v>48.54351765334006</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.370553292691868</v>
+        <v>10.93925868147974</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.50823130145932</v>
+        <v>14.70215646328059</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.75166087263617</v>
+        <v>11.40726485426849</v>
       </c>
       <c r="C8">
-        <v>6.117202402752827</v>
+        <v>3.684834907120255</v>
       </c>
       <c r="D8">
-        <v>10.67685997916013</v>
+        <v>9.496544426933948</v>
       </c>
       <c r="E8">
-        <v>14.11581884702059</v>
+        <v>11.60401101386661</v>
       </c>
       <c r="F8">
-        <v>63.18542273557488</v>
+        <v>50.23639124675987</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.35621616443974</v>
+        <v>10.96576801927881</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.81165748401393</v>
+        <v>14.81476934179006</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.86469263027002</v>
+        <v>11.6811784557377</v>
       </c>
       <c r="C9">
-        <v>7.179287508463824</v>
+        <v>3.839373611734889</v>
       </c>
       <c r="D9">
-        <v>11.75611843074864</v>
+        <v>9.891854797305722</v>
       </c>
       <c r="E9">
-        <v>16.37170422729793</v>
+        <v>12.27332883099229</v>
       </c>
       <c r="F9">
-        <v>71.71086892804014</v>
+        <v>53.41194598369486</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.13148233985249</v>
+        <v>11.05806812180466</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.15333535759199</v>
+        <v>15.07257693805665</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.31161208198177</v>
+        <v>11.90462713838139</v>
       </c>
       <c r="C10">
-        <v>7.922017571710116</v>
+        <v>3.966923952286597</v>
       </c>
       <c r="D10">
-        <v>12.52107685083307</v>
+        <v>10.16815792730439</v>
       </c>
       <c r="E10">
-        <v>18.04366053478416</v>
+        <v>12.75705989669344</v>
       </c>
       <c r="F10">
-        <v>77.64328012000342</v>
+        <v>55.63838383000791</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.35008629686781</v>
+        <v>11.15006230053069</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.75595861931621</v>
+        <v>15.28318677714546</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.94990190038905</v>
+        <v>12.01061195839914</v>
       </c>
       <c r="C11">
-        <v>8.253915042976569</v>
+        <v>4.027546042172079</v>
       </c>
       <c r="D11">
-        <v>12.86378223606987</v>
+        <v>10.29055100225684</v>
       </c>
       <c r="E11">
-        <v>18.78023803743616</v>
+        <v>12.97434257127259</v>
       </c>
       <c r="F11">
-        <v>80.27514303889426</v>
+        <v>56.62460640975718</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.88856431281639</v>
+        <v>11.1970385756556</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.46282009508348</v>
+        <v>15.38327779852172</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.18903022860697</v>
+        <v>12.05132598050289</v>
       </c>
       <c r="C12">
-        <v>8.378951169510787</v>
+        <v>4.050837442484824</v>
       </c>
       <c r="D12">
-        <v>12.99289296078578</v>
+        <v>10.3364052369358</v>
       </c>
       <c r="E12">
-        <v>19.05603851624932</v>
+        <v>13.05614419235973</v>
       </c>
       <c r="F12">
-        <v>81.26280623863889</v>
+        <v>56.99397989460273</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.09045329848377</v>
+        <v>11.21555132962571</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.72762934138928</v>
+        <v>15.42176612932307</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.13763930819924</v>
+        <v>12.04253240573799</v>
       </c>
       <c r="C13">
-        <v>8.352047396739719</v>
+        <v>4.045806931880075</v>
       </c>
       <c r="D13">
-        <v>12.96511439674893</v>
+        <v>10.3265519408921</v>
       </c>
       <c r="E13">
-        <v>18.99677322718273</v>
+        <v>13.03854925731608</v>
       </c>
       <c r="F13">
-        <v>81.05048165853511</v>
+        <v>56.91461444482974</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.0470581999993</v>
+        <v>11.21153231607284</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.67071959279473</v>
+        <v>15.41345140434992</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.96962500934352</v>
+        <v>12.01395015858812</v>
       </c>
       <c r="C14">
-        <v>8.264213454342649</v>
+        <v>4.029455744212313</v>
       </c>
       <c r="D14">
-        <v>12.87441692629863</v>
+        <v>10.29433345058986</v>
       </c>
       <c r="E14">
-        <v>18.80298890291542</v>
+        <v>12.98108247281429</v>
       </c>
       <c r="F14">
-        <v>80.35657397538795</v>
+        <v>56.65507833461314</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.90521271019813</v>
+        <v>11.19854720726196</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.48466146830194</v>
+        <v>15.38643268753914</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.86638487081471</v>
+        <v>11.99651690537151</v>
       </c>
       <c r="C15">
-        <v>8.210335348908817</v>
+        <v>4.019482667857279</v>
       </c>
       <c r="D15">
-        <v>12.81877887030455</v>
+        <v>10.27453389827269</v>
       </c>
       <c r="E15">
-        <v>18.68389390207449</v>
+        <v>12.94581778671366</v>
       </c>
       <c r="F15">
-        <v>79.93039035259048</v>
+        <v>56.49556523547277</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.81807347128349</v>
+        <v>11.19068729102532</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.37033302555372</v>
+        <v>15.36995835246928</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.26952102509998</v>
+        <v>11.8977843355891</v>
       </c>
       <c r="C16">
-        <v>7.900224538035383</v>
+        <v>3.963011156249056</v>
       </c>
       <c r="D16">
-        <v>12.4985815040786</v>
+        <v>10.16009122350814</v>
       </c>
       <c r="E16">
-        <v>17.99506725449945</v>
+        <v>12.74279724088574</v>
       </c>
       <c r="F16">
-        <v>77.46998745777238</v>
+        <v>55.57337365974628</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.31459761486677</v>
+        <v>11.14709435834281</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.70934400339161</v>
+        <v>15.27672925963587</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.89845318846676</v>
+        <v>11.83829512793011</v>
       </c>
       <c r="C17">
-        <v>7.708592991581373</v>
+        <v>3.929005946691829</v>
       </c>
       <c r="D17">
-        <v>12.30085775042069</v>
+        <v>10.08902560570958</v>
       </c>
       <c r="E17">
-        <v>17.56656395962764</v>
+        <v>12.61748251575414</v>
       </c>
       <c r="F17">
-        <v>75.94389023421814</v>
+        <v>55.00063251619698</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.00184096490515</v>
+        <v>11.12165577830796</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.29838497616557</v>
+        <v>15.2206124653163</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.68313030737557</v>
+        <v>11.80448942701436</v>
       </c>
       <c r="C18">
-        <v>7.597794784548076</v>
+        <v>3.909694000716966</v>
       </c>
       <c r="D18">
-        <v>12.18662824371195</v>
+        <v>10.04784112990736</v>
       </c>
       <c r="E18">
-        <v>17.31781872410549</v>
+        <v>12.5451486308217</v>
       </c>
       <c r="F18">
-        <v>75.05977970193169</v>
+        <v>54.66871791209201</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.82044008926135</v>
+        <v>11.10750774178553</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.05990248110758</v>
+        <v>15.18874063831633</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.60989223604996</v>
+        <v>11.79311528715963</v>
       </c>
       <c r="C19">
-        <v>7.56017537845913</v>
+        <v>3.903198894301271</v>
       </c>
       <c r="D19">
-        <v>12.14786308651882</v>
+        <v>10.03384423031112</v>
       </c>
       <c r="E19">
-        <v>17.23319683669132</v>
+        <v>12.52061616459457</v>
       </c>
       <c r="F19">
-        <v>74.75932986280277</v>
+        <v>54.55591824286991</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.7587538997029</v>
+        <v>11.10280089442711</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.97878489257672</v>
+        <v>15.17801984721581</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.93814812062625</v>
+        <v>11.84458564063012</v>
       </c>
       <c r="C20">
-        <v>7.729050755151014</v>
+        <v>3.932600579904025</v>
       </c>
       <c r="D20">
-        <v>12.32195734881263</v>
+        <v>10.09662282638443</v>
       </c>
       <c r="E20">
-        <v>17.61241277858404</v>
+        <v>12.63084959505215</v>
       </c>
       <c r="F20">
-        <v>76.10699801152535</v>
+        <v>55.06186137736433</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.03528910686782</v>
+        <v>11.12431380401259</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.34234840696959</v>
+        <v>15.22654448361329</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.01904235738128</v>
+        <v>12.02233007408375</v>
       </c>
       <c r="C21">
-        <v>8.290028089621831</v>
+        <v>4.034249696575771</v>
       </c>
       <c r="D21">
-        <v>12.90107410948483</v>
+        <v>10.30381033816608</v>
       </c>
       <c r="E21">
-        <v>18.85999003487877</v>
+        <v>12.99797546315045</v>
       </c>
       <c r="F21">
-        <v>80.56062869078929</v>
+        <v>56.73142329920894</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.94692874326091</v>
+        <v>11.20234171921826</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.5393861365642</v>
+        <v>15.39435307952869</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.71060697438357</v>
+        <v>12.14185529005172</v>
       </c>
       <c r="C22">
-        <v>8.653016455087883</v>
+        <v>4.102618881582061</v>
       </c>
       <c r="D22">
-        <v>13.27575268002625</v>
+        <v>10.43633559575695</v>
       </c>
       <c r="E22">
-        <v>19.65732527254849</v>
+        <v>13.23509037659048</v>
       </c>
       <c r="F22">
-        <v>83.41951980340616</v>
+        <v>57.79864716584095</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.5311088123442</v>
+        <v>11.25754922720896</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.30521491544502</v>
+        <v>15.50742684017468</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.3427596152393</v>
+        <v>12.07776980841717</v>
       </c>
       <c r="C23">
-        <v>8.45953670668993</v>
+        <v>4.06596457510688</v>
       </c>
       <c r="D23">
-        <v>13.07608933572075</v>
+        <v>10.365874235241</v>
       </c>
       <c r="E23">
-        <v>19.23330092677775</v>
+        <v>13.10882111983346</v>
       </c>
       <c r="F23">
-        <v>81.89815051304238</v>
+        <v>57.23132035639025</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.22028821238652</v>
+        <v>11.22770346045739</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.89786705851044</v>
+        <v>15.44677623897025</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.92020826448855</v>
+        <v>11.84174046483369</v>
       </c>
       <c r="C24">
-        <v>7.719803767810688</v>
+        <v>3.930974701666522</v>
       </c>
       <c r="D24">
-        <v>12.31241995734646</v>
+        <v>10.09318914281426</v>
       </c>
       <c r="E24">
-        <v>17.59169200505687</v>
+        <v>12.62480723182367</v>
       </c>
       <c r="F24">
-        <v>76.03327801527473</v>
+        <v>55.03418800606943</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.02017218264733</v>
+        <v>11.12311062402114</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.32247946824128</v>
+        <v>15.22386139967287</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.31249471986657</v>
+        <v>11.60301839804269</v>
       </c>
       <c r="C25">
-        <v>6.899222997355182</v>
+        <v>3.794959186904178</v>
       </c>
       <c r="D25">
-        <v>11.46925126205108</v>
+        <v>9.787310752556975</v>
       </c>
       <c r="E25">
-        <v>15.73278074192842</v>
+        <v>12.09329909037856</v>
       </c>
       <c r="F25">
-        <v>69.46376474828901</v>
+        <v>52.5703377465805</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.66710056633055</v>
+        <v>11.02881561461387</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.54156414622911</v>
+        <v>14.99900575517153</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_235/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_235/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.44237473425249</v>
+        <v>12.05675308284968</v>
       </c>
       <c r="C2">
-        <v>3.704411347280181</v>
+        <v>6.268975176312705</v>
       </c>
       <c r="D2">
-        <v>9.552705627693239</v>
+        <v>10.82938286242655</v>
       </c>
       <c r="E2">
-        <v>11.69700795633196</v>
+        <v>14.42889633780776</v>
       </c>
       <c r="F2">
-        <v>50.68607110340682</v>
+        <v>64.40254570431236</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.97568907855648</v>
+        <v>10.61227069119692</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.84782912126711</v>
+        <v>14.14989218090208</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.3436233243324</v>
+        <v>11.15710074065226</v>
       </c>
       <c r="C3">
-        <v>3.649666658397329</v>
+        <v>5.82290074055699</v>
       </c>
       <c r="D3">
-        <v>9.388250751436727</v>
+        <v>10.38332715384668</v>
       </c>
       <c r="E3">
-        <v>11.42711040780006</v>
+        <v>13.51023002327162</v>
       </c>
       <c r="F3">
-        <v>49.37148576754063</v>
+        <v>60.83062059378864</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.94998322847092</v>
+        <v>9.857434621202806</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.75478778018319</v>
+        <v>13.15235054085786</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.28818494904734</v>
+        <v>10.57967906708215</v>
       </c>
       <c r="C4">
-        <v>3.619505316429328</v>
+        <v>5.538905971891886</v>
       </c>
       <c r="D4">
-        <v>9.28472429905576</v>
+        <v>10.10332311270805</v>
       </c>
       <c r="E4">
-        <v>11.26136667513821</v>
+        <v>12.9285567121768</v>
       </c>
       <c r="F4">
-        <v>48.54807847348771</v>
+        <v>58.56839635428381</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.93930522970971</v>
+        <v>9.37326438661013</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.70243272264872</v>
+        <v>12.51181937358351</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.26692793595261</v>
+        <v>10.33794374422737</v>
       </c>
       <c r="C5">
-        <v>3.608107096826416</v>
+        <v>5.420535960203905</v>
       </c>
       <c r="D5">
-        <v>9.241918013633203</v>
+        <v>9.987697729106328</v>
       </c>
       <c r="E5">
-        <v>11.19391706980229</v>
+        <v>12.68716059634783</v>
       </c>
       <c r="F5">
-        <v>48.2088212694598</v>
+        <v>57.62949425260175</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.93623994860122</v>
+        <v>9.170625074986448</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.682315674612</v>
+        <v>12.24358775290765</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.26347958681162</v>
+        <v>10.29741163393822</v>
       </c>
       <c r="C6">
-        <v>3.60626899660649</v>
+        <v>5.400718571131065</v>
       </c>
       <c r="D6">
-        <v>9.23477339761622</v>
+        <v>9.968407167004502</v>
       </c>
       <c r="E6">
-        <v>11.18272562102484</v>
+        <v>12.6468167222172</v>
       </c>
       <c r="F6">
-        <v>48.15227499772806</v>
+        <v>57.47257513362744</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.93580866534114</v>
+        <v>9.136651069528584</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.67904930085579</v>
+        <v>12.19860825076951</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.28789283126457</v>
+        <v>10.57644515012646</v>
       </c>
       <c r="C7">
-        <v>3.619347951575937</v>
+        <v>5.537320404679901</v>
       </c>
       <c r="D7">
-        <v>9.284149471485049</v>
+        <v>10.10176987306583</v>
       </c>
       <c r="E7">
-        <v>11.26045652012303</v>
+        <v>12.92531868085471</v>
       </c>
       <c r="F7">
-        <v>48.54351765334006</v>
+        <v>58.55580236245284</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.93925868147974</v>
+        <v>9.370553292691811</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.70215646328059</v>
+        <v>12.50823130145931</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.40726485426849</v>
+        <v>11.75166087263607</v>
       </c>
       <c r="C8">
-        <v>3.684834907120255</v>
+        <v>6.117202402752723</v>
       </c>
       <c r="D8">
-        <v>9.496544426933948</v>
+        <v>10.67685997916013</v>
       </c>
       <c r="E8">
-        <v>11.60401101386661</v>
+        <v>14.11581884702058</v>
       </c>
       <c r="F8">
-        <v>50.23639124675987</v>
+        <v>63.18542273557456</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.96576801927881</v>
+        <v>10.35621616443965</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.81476934179006</v>
+        <v>13.81165748401388</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.6811784557377</v>
+        <v>13.86469263026995</v>
       </c>
       <c r="C9">
-        <v>3.839373611734889</v>
+        <v>7.179287508463625</v>
       </c>
       <c r="D9">
-        <v>9.891854797305722</v>
+        <v>11.75611843074872</v>
       </c>
       <c r="E9">
-        <v>12.27332883099229</v>
+        <v>16.37170422729799</v>
       </c>
       <c r="F9">
-        <v>53.41194598369486</v>
+        <v>71.71086892803984</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.05806812180466</v>
+        <v>12.13148233985238</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.07257693805665</v>
+        <v>16.15333535759196</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.90462713838139</v>
+        <v>15.31161208198188</v>
       </c>
       <c r="C10">
-        <v>3.966923952286597</v>
+        <v>7.922017571710143</v>
       </c>
       <c r="D10">
-        <v>10.16815792730439</v>
+        <v>12.52107685083308</v>
       </c>
       <c r="E10">
-        <v>12.75705989669344</v>
+        <v>18.04366053478411</v>
       </c>
       <c r="F10">
-        <v>55.63838383000791</v>
+        <v>77.64328012000384</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.15006230053069</v>
+        <v>13.35008629686795</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.28318677714546</v>
+        <v>17.75595861931626</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.01061195839914</v>
+        <v>15.94990190038901</v>
       </c>
       <c r="C11">
-        <v>4.027546042172079</v>
+        <v>8.253915042976578</v>
       </c>
       <c r="D11">
-        <v>10.29055100225684</v>
+        <v>12.86378223606986</v>
       </c>
       <c r="E11">
-        <v>12.97434257127259</v>
+        <v>18.78023803743616</v>
       </c>
       <c r="F11">
-        <v>56.62460640975718</v>
+        <v>80.2751430388942</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.1970385756556</v>
+        <v>13.88856431281642</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.38327779852172</v>
+        <v>18.46282009508348</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.05132598050289</v>
+        <v>16.18903022860697</v>
       </c>
       <c r="C12">
-        <v>4.050837442484824</v>
+        <v>8.378951169510611</v>
       </c>
       <c r="D12">
-        <v>10.3364052369358</v>
+        <v>12.99289296078592</v>
       </c>
       <c r="E12">
-        <v>13.05614419235973</v>
+        <v>19.05603851624936</v>
       </c>
       <c r="F12">
-        <v>56.99397989460273</v>
+        <v>81.26280623863921</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.21555132962571</v>
+        <v>14.09045329848377</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.42176612932307</v>
+        <v>18.72762934138926</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.04253240573799</v>
+        <v>16.13763930819919</v>
       </c>
       <c r="C13">
-        <v>4.045806931880075</v>
+        <v>8.352047396739946</v>
       </c>
       <c r="D13">
-        <v>10.3265519408921</v>
+        <v>12.9651143967489</v>
       </c>
       <c r="E13">
-        <v>13.03854925731608</v>
+        <v>18.99677322718268</v>
       </c>
       <c r="F13">
-        <v>56.91461444482974</v>
+        <v>81.05048165853469</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.21153231607284</v>
+        <v>14.04705819999929</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.41345140434992</v>
+        <v>18.67071959279467</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.01395015858812</v>
+        <v>15.96962500934347</v>
       </c>
       <c r="C14">
-        <v>4.029455744212313</v>
+        <v>8.264213454342668</v>
       </c>
       <c r="D14">
-        <v>10.29433345058986</v>
+        <v>12.87441692629855</v>
       </c>
       <c r="E14">
-        <v>12.98108247281429</v>
+        <v>18.80298890291528</v>
       </c>
       <c r="F14">
-        <v>56.65507833461314</v>
+        <v>80.35657397538778</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.19854720726196</v>
+        <v>13.90521271019806</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.38643268753914</v>
+        <v>18.48466146830182</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.99651690537151</v>
+        <v>15.86638487081468</v>
       </c>
       <c r="C15">
-        <v>4.019482667857279</v>
+        <v>8.210335348909089</v>
       </c>
       <c r="D15">
-        <v>10.27453389827269</v>
+        <v>12.81877887030465</v>
       </c>
       <c r="E15">
-        <v>12.94581778671366</v>
+        <v>18.68389390207455</v>
       </c>
       <c r="F15">
-        <v>56.49556523547277</v>
+        <v>79.93039035259049</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.19068729102532</v>
+        <v>13.81807347128351</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.36995835246928</v>
+        <v>18.37033302555385</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.8977843355891</v>
+        <v>15.26952102509984</v>
       </c>
       <c r="C16">
-        <v>3.963011156249056</v>
+        <v>7.90022453803524</v>
       </c>
       <c r="D16">
-        <v>10.16009122350814</v>
+        <v>12.49858150407844</v>
       </c>
       <c r="E16">
-        <v>12.74279724088574</v>
+        <v>17.99506725449932</v>
       </c>
       <c r="F16">
-        <v>55.57337365974628</v>
+        <v>77.46998745777141</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.14709435834281</v>
+        <v>13.31459761486665</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.27672925963587</v>
+        <v>17.70934400339148</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.83829512793011</v>
+        <v>14.8984531884668</v>
       </c>
       <c r="C17">
-        <v>3.929005946691829</v>
+        <v>7.708592991581688</v>
       </c>
       <c r="D17">
-        <v>10.08902560570958</v>
+        <v>12.30085775042081</v>
       </c>
       <c r="E17">
-        <v>12.61748251575414</v>
+        <v>17.5665639596276</v>
       </c>
       <c r="F17">
-        <v>55.00063251619698</v>
+        <v>75.94389023421827</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.12165577830796</v>
+        <v>13.00184096490525</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.2206124653163</v>
+        <v>17.29838497616563</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.80448942701436</v>
+        <v>14.68313030737569</v>
       </c>
       <c r="C18">
-        <v>3.909694000716966</v>
+        <v>7.597794784547965</v>
       </c>
       <c r="D18">
-        <v>10.04784112990736</v>
+        <v>12.18662824371191</v>
       </c>
       <c r="E18">
-        <v>12.5451486308217</v>
+        <v>17.31781872410552</v>
       </c>
       <c r="F18">
-        <v>54.66871791209201</v>
+        <v>75.05977970193177</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.10750774178553</v>
+        <v>12.8204400892614</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.18874063831633</v>
+        <v>17.05990248110763</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.79311528715963</v>
+        <v>14.60989223605009</v>
       </c>
       <c r="C19">
-        <v>3.903198894301271</v>
+        <v>7.560175378459268</v>
       </c>
       <c r="D19">
-        <v>10.03384423031112</v>
+        <v>12.14786308651891</v>
       </c>
       <c r="E19">
-        <v>12.52061616459457</v>
+        <v>17.23319683669133</v>
       </c>
       <c r="F19">
-        <v>54.55591824286991</v>
+        <v>74.75932986280353</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.10280089442711</v>
+        <v>12.75875389970307</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.17801984721581</v>
+        <v>16.97878489257682</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.84458564063012</v>
+        <v>14.9381481206263</v>
       </c>
       <c r="C20">
-        <v>3.932600579904025</v>
+        <v>7.729050755150821</v>
       </c>
       <c r="D20">
-        <v>10.09662282638443</v>
+        <v>12.3219573488127</v>
       </c>
       <c r="E20">
-        <v>12.63084959505215</v>
+        <v>17.61241277858404</v>
       </c>
       <c r="F20">
-        <v>55.06186137736433</v>
+        <v>76.10699801152546</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.12431380401259</v>
+        <v>13.03528910686782</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.22654448361329</v>
+        <v>17.34234840696958</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.02233007408375</v>
+        <v>16.01904235738131</v>
       </c>
       <c r="C21">
-        <v>4.034249696575771</v>
+        <v>8.290028089621657</v>
       </c>
       <c r="D21">
-        <v>10.30381033816608</v>
+        <v>12.90107410948483</v>
       </c>
       <c r="E21">
-        <v>12.99797546315045</v>
+        <v>18.85999003487876</v>
       </c>
       <c r="F21">
-        <v>56.73142329920894</v>
+        <v>80.5606286907897</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.20234171921826</v>
+        <v>13.94692874326089</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.39435307952869</v>
+        <v>18.53938613656419</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.14185529005172</v>
+        <v>16.71060697438353</v>
       </c>
       <c r="C22">
-        <v>4.102618881582061</v>
+        <v>8.653016455087963</v>
       </c>
       <c r="D22">
-        <v>10.43633559575695</v>
+        <v>13.27575268002627</v>
       </c>
       <c r="E22">
-        <v>13.23509037659048</v>
+        <v>19.65732527254844</v>
       </c>
       <c r="F22">
-        <v>57.79864716584095</v>
+        <v>83.41951980340663</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.25754922720896</v>
+        <v>14.53110881234421</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.50742684017468</v>
+        <v>19.30521491544501</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.07776980841717</v>
+        <v>16.34275961523912</v>
       </c>
       <c r="C23">
-        <v>4.06596457510688</v>
+        <v>8.459536706689832</v>
       </c>
       <c r="D23">
-        <v>10.365874235241</v>
+        <v>13.07608933572062</v>
       </c>
       <c r="E23">
-        <v>13.10882111983346</v>
+        <v>19.23330092677774</v>
       </c>
       <c r="F23">
-        <v>57.23132035639025</v>
+        <v>81.89815051304146</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.22770346045739</v>
+        <v>14.22028821238634</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.44677623897025</v>
+        <v>18.89786705851033</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.84174046483369</v>
+        <v>14.9202082644885</v>
       </c>
       <c r="C24">
-        <v>3.930974701666522</v>
+        <v>7.719803767810807</v>
       </c>
       <c r="D24">
-        <v>10.09318914281426</v>
+        <v>12.31241995734656</v>
       </c>
       <c r="E24">
-        <v>12.62480723182367</v>
+        <v>17.5916920050568</v>
       </c>
       <c r="F24">
-        <v>55.03418800606943</v>
+        <v>76.03327801527487</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.12311062402114</v>
+        <v>13.02017218264727</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.22386139967287</v>
+        <v>17.32247946824121</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.60301839804269</v>
+        <v>13.3124947198666</v>
       </c>
       <c r="C25">
-        <v>3.794959186904178</v>
+        <v>6.89922299735484</v>
       </c>
       <c r="D25">
-        <v>9.787310752556975</v>
+        <v>11.46925126205113</v>
       </c>
       <c r="E25">
-        <v>12.09329909037856</v>
+        <v>15.7327807419284</v>
       </c>
       <c r="F25">
-        <v>52.5703377465805</v>
+        <v>69.46376474828922</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.02881561461387</v>
+        <v>11.66710056633049</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.99900575517153</v>
+        <v>15.54156414622907</v>
       </c>
       <c r="N25">
         <v>0</v>
